--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd44-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd44-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="H2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="I2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="J2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,33 +558,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N2">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>192.1394791304077</v>
+        <v>178.0112293170747</v>
       </c>
       <c r="R2">
-        <v>1729.255312173669</v>
+        <v>1602.101063853672</v>
       </c>
       <c r="S2">
-        <v>0.03375145948491259</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="T2">
-        <v>0.03502714343990081</v>
+        <v>0.03634868370049611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.084959</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="H3">
-        <v>63.25487699999999</v>
+        <v>243.189949</v>
       </c>
       <c r="I3">
-        <v>0.03381320693734752</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="J3">
-        <v>0.03509122472428063</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N3">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3515143798086666</v>
+        <v>894.0228347188007</v>
       </c>
       <c r="R3">
-        <v>3.163629418278</v>
+        <v>8046.205512469207</v>
       </c>
       <c r="S3">
-        <v>6.174745243492644E-05</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="T3">
-        <v>6.408128437981893E-05</v>
+        <v>0.1825533892714798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.06331633333333</v>
+        <v>168.70371</v>
       </c>
       <c r="H4">
-        <v>243.189949</v>
+        <v>506.11113</v>
       </c>
       <c r="I4">
-        <v>0.12999838843446</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="J4">
-        <v>0.1349118606466557</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N4">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>738.7001974663615</v>
+        <v>1860.58226906958</v>
       </c>
       <c r="R4">
-        <v>6648.301777197254</v>
+        <v>16745.24042162622</v>
       </c>
       <c r="S4">
-        <v>0.1297609939358741</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="T4">
-        <v>0.1346654934885916</v>
+        <v>0.3799182594076638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.06331633333333</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="H5">
-        <v>243.189949</v>
+        <v>164.869545</v>
       </c>
       <c r="I5">
-        <v>0.12999838843446</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="J5">
-        <v>0.1349118606466557</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N5">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.351433567698444</v>
+        <v>909.1482106012052</v>
       </c>
       <c r="R5">
-        <v>12.162902109286</v>
+        <v>5454.889263607231</v>
       </c>
       <c r="S5">
-        <v>0.0002373944985859302</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="T5">
-        <v>0.0002463671580640756</v>
+        <v>0.1237612588479007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.9994176666667</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="H6">
-        <v>410.998253</v>
+        <v>369.565139</v>
       </c>
       <c r="I6">
-        <v>0.2197011461990087</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="J6">
-        <v>0.2280050605000741</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N6">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1248.425323077105</v>
+        <v>1358.607436453007</v>
       </c>
       <c r="R6">
-        <v>11235.82790769394</v>
+        <v>12227.46692807707</v>
       </c>
       <c r="S6">
-        <v>0.2192999424297253</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="T6">
-        <v>0.2275886926691778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>136.9994176666667</v>
-      </c>
-      <c r="H7">
-        <v>410.998253</v>
-      </c>
-      <c r="I7">
-        <v>0.2197011461990087</v>
-      </c>
-      <c r="J7">
-        <v>0.2280050605000741</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.050014</v>
-      </c>
-      <c r="O7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q7">
-        <v>2.283962958393555</v>
-      </c>
-      <c r="R7">
-        <v>20.555666625542</v>
-      </c>
-      <c r="S7">
-        <v>0.0004012037692833608</v>
-      </c>
-      <c r="T7">
-        <v>0.0004163678308962923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>68.13119800000001</v>
-      </c>
-      <c r="H8">
-        <v>136.262396</v>
-      </c>
-      <c r="I8">
-        <v>0.1092596052410345</v>
-      </c>
-      <c r="J8">
-        <v>0.07559281728592909</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N8">
-        <v>27.337897</v>
-      </c>
-      <c r="O8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q8">
-        <v>620.8545578035355</v>
-      </c>
-      <c r="R8">
-        <v>3725.127346821213</v>
-      </c>
-      <c r="S8">
-        <v>0.1090600825429899</v>
-      </c>
-      <c r="T8">
-        <v>0.07545477465961348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>68.13119800000001</v>
-      </c>
-      <c r="H9">
-        <v>136.262396</v>
-      </c>
-      <c r="I9">
-        <v>0.1092596052410345</v>
-      </c>
-      <c r="J9">
-        <v>0.07559281728592909</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.050014</v>
-      </c>
-      <c r="O9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q9">
-        <v>1.135837912257333</v>
-      </c>
-      <c r="R9">
-        <v>6.815027473544001</v>
-      </c>
-      <c r="S9">
-        <v>0.0001995226980445898</v>
-      </c>
-      <c r="T9">
-        <v>0.0001380426263156199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>316.292811</v>
-      </c>
-      <c r="H10">
-        <v>948.878433</v>
-      </c>
-      <c r="I10">
-        <v>0.5072276531881493</v>
-      </c>
-      <c r="J10">
-        <v>0.5263990368430604</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N10">
-        <v>27.337897</v>
-      </c>
-      <c r="O10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q10">
-        <v>2882.260096319489</v>
-      </c>
-      <c r="R10">
-        <v>25940.3408668754</v>
-      </c>
-      <c r="S10">
-        <v>0.5063013874409533</v>
-      </c>
-      <c r="T10">
-        <v>0.5254377615771715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>316.292811</v>
-      </c>
-      <c r="H11">
-        <v>948.878433</v>
-      </c>
-      <c r="I11">
-        <v>0.5072276531881493</v>
-      </c>
-      <c r="J11">
-        <v>0.5263990368430604</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.050014</v>
-      </c>
-      <c r="O11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q11">
-        <v>5.273022883117999</v>
-      </c>
-      <c r="R11">
-        <v>47.457205948062</v>
-      </c>
-      <c r="S11">
-        <v>0.0009262657471959837</v>
-      </c>
-      <c r="T11">
-        <v>0.0009612752658889837</v>
+        <v>0.2774184087724594</v>
       </c>
     </row>
   </sheetData>
